--- a/src/test/resources/RequestMapping.xlsx
+++ b/src/test/resources/RequestMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16515" windowHeight="10290" tabRatio="699" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16515" windowHeight="10290" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="COL_TYPES" sheetId="9" r:id="rId1"/>
@@ -6200,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31513,8 +31513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/RequestMapping.xlsx
+++ b/src/test/resources/RequestMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16515" windowHeight="10290" tabRatio="699"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16515" windowHeight="10290" tabRatio="699" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="COL_TYPES" sheetId="9" r:id="rId1"/>
@@ -6200,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6349,7 +6349,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31461,7 +31461,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31513,8 +31513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1351"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
